--- a/src/excel_template/cdQC_trend/Magnification Error Trend.xlsx
+++ b/src/excel_template/cdQC_trend/Magnification Error Trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -4611,9 +4611,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
